--- a/ddl.xlsx
+++ b/ddl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Taille de l'élément</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Type d'élément</t>
   </si>
   <si>
-    <t>T15_8</t>
-  </si>
-  <si>
     <t>T15_4</t>
   </si>
   <si>
@@ -43,6 +40,12 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>coarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15_8 </t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,15 +409,15 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -433,6 +436,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3">
         <v>30</v>
       </c>
@@ -536,7 +542,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>25</v>
@@ -545,7 +551,7 @@
         <v>1878</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>50000</v>
@@ -555,6 +561,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
       <c r="B11">
         <v>20</v>
       </c>
@@ -562,7 +571,7 @@
         <v>2923</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>46400</v>
@@ -579,7 +588,7 @@
         <v>5092</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>40400</v>
@@ -596,7 +605,7 @@
         <v>11328</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>38000</v>
@@ -613,7 +622,7 @@
         <v>22877</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>33200</v>
@@ -630,7 +639,7 @@
         <v>30773</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>32800</v>
@@ -647,7 +656,7 @@
         <v>44129</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>31800</v>
